--- a/MCAO/test_mapping_result.xlsx
+++ b/MCAO/test_mapping_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="153">
   <si>
     <t>Owner_OwnerID</t>
   </si>
@@ -265,6 +265,72 @@
     <t>Improvements_Other</t>
   </si>
   <si>
+    <t>IsRental</t>
+  </si>
+  <si>
+    <t>LocalJusidiction</t>
+  </si>
+  <si>
+    <t>MCR</t>
+  </si>
+  <si>
+    <t>NumberOfParcelsInMCR</t>
+  </si>
+  <si>
+    <t>NumberOfParcelsInSTR</t>
+  </si>
+  <si>
+    <t>NumberOfParcelsInSubdivision</t>
+  </si>
+  <si>
+    <t>PropertyAddress</t>
+  </si>
+  <si>
+    <t>PropertyDescription</t>
+  </si>
+  <si>
+    <t>PEPropUseDesc</t>
+  </si>
+  <si>
+    <t>Owner_DeedType</t>
+  </si>
+  <si>
+    <t>Owner_SaleDate</t>
+  </si>
+  <si>
+    <t>ResidentialPropertyData_ConstructionYear</t>
+  </si>
+  <si>
+    <t>ResidentialPropertyData_ExteriorWalls</t>
+  </si>
+  <si>
+    <t>ResidentialPropertyData_ImprovementQualityGrade</t>
+  </si>
+  <si>
+    <t>Valuations_0_AssessedLPV</t>
+  </si>
+  <si>
+    <t>Valuations_0_AssessmentRatioPercentage</t>
+  </si>
+  <si>
+    <t>MapIDs_Book/Map Maps_0_UpdateDate</t>
+  </si>
+  <si>
+    <t>MapIDs_Book/Map Maps_0_Url</t>
+  </si>
+  <si>
+    <t>MapIDs_Book/Map Maps_1_UpdateDate</t>
+  </si>
+  <si>
+    <t>MapIDs_Book/Map Maps_1_Url</t>
+  </si>
+  <si>
+    <t>MapIDs_Book/Map Maps_2_UpdateDate</t>
+  </si>
+  <si>
+    <t>MapIDs_Book/Map Maps_2_Url</t>
+  </si>
+  <si>
     <t>1CE9343E-0B79-4899-8A74-6446449696BB</t>
   </si>
   <si>
@@ -368,13 +434,52 @@
   </si>
   <si>
     <t xml:space="preserve">243080      </t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1405</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>10010 N 29TH ST PHOENIX, AZ 85028</t>
+  </si>
+  <si>
+    <t>Prop Tax Exe, Priv-Owned</t>
+  </si>
+  <si>
+    <t>WD</t>
+  </si>
+  <si>
+    <t>Bp - 8" Painted Block</t>
+  </si>
+  <si>
+    <t>CLASS R3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38285       </t>
+  </si>
+  <si>
+    <t>04-AUG-08</t>
+  </si>
+  <si>
+    <t>https://mcassessor.maricopa.gov/getmapid/806260103/</t>
+  </si>
+  <si>
+    <t>https://mcassessor.maricopa.gov/getmapid/806260104/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,6 +494,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -423,16 +535,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -725,13 +843,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CE2"/>
+  <dimension ref="A1:DA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:83">
+    <row r="1" spans="1:105">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -981,142 +1099,266 @@
       <c r="CE1" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="CF1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="2" spans="1:83">
+    <row r="2" spans="1:105">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="L2" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="M2" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="N2" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="O2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="P2" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="Q2" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="R2" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="S2" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="U2" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="Y2" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="Z2" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="AA2" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="AC2" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="AF2" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="AM2" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="AN2" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="AO2" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="AP2" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="AS2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BP2" t="s">
         <v>106</v>
       </c>
-      <c r="AT2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>112</v>
-      </c>
-      <c r="BA2" t="s">
+      <c r="CC2" t="s">
+        <v>129</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>140</v>
+      </c>
+      <c r="CH2" t="s">
         <v>113</v>
       </c>
-      <c r="BB2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>110</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>115</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>113</v>
-      </c>
-      <c r="BI2" t="s">
+      <c r="CI2" t="s">
+        <v>141</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>142</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>143</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>144</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>119</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>145</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>146</v>
+      </c>
+      <c r="CQ2" t="s">
         <v>117</v>
       </c>
-      <c r="BL2" t="s">
-        <v>90</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>84</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>107</v>
+      <c r="CR2" t="s">
+        <v>147</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>148</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>149</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>125</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>150</v>
+      </c>
+      <c r="CW2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>150</v>
+      </c>
+      <c r="CY2" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="CW2" r:id="rId1"/>
+    <hyperlink ref="CY2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>